--- a/scripts Stata/Atual/Diff Media/2014.xlsx
+++ b/scripts Stata/Atual/Diff Media/2014.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189C48A-D7CE-4FEE-9F5A-4E44F9E8B032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20774F78-A8EF-4DF5-A0B9-3D2D710AE30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="3945" windowWidth="16050" windowHeight="8055" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="3225" windowWidth="23040" windowHeight="9915" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="6" r:id="rId1"/>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +193,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -201,16 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -257,32 +247,32 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,7 +592,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K41"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
